--- a/pabi_trial_balance_extension/xlsx_template/cfo.xlsx
+++ b/pabi_trial_balance_extension/xlsx_template/cfo.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t xml:space="preserve">Trial Balance for GFMIS</t>
+    <t xml:space="preserve">Trial Balance for CMO</t>
   </si>
   <si>
     <t xml:space="preserve">Fiscal Year:</t>
@@ -67,7 +67,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -103,6 +103,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -110,14 +111,6 @@
       <color rgb="FF000000"/>
       <name val="DejaVu Serif"/>
       <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -224,7 +217,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -308,7 +301,7 @@
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
